--- a/input/Logarithmic2.xlsx
+++ b/input/Logarithmic2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,13 +460,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.144596495395281</v>
+        <v>1.092298823310524</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4325058935816759</v>
+        <v>-0.2445972435149182</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3773755876995912</v>
+        <v>0.3622644491438558</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>8.071428571428571</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6811496400081261</v>
+        <v>0.6456237126960329</v>
       </c>
       <c r="C3" t="n">
-        <v>21.20756964627526</v>
+        <v>20.8629582959298</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2910123236521516</v>
+        <v>0.40406499131655</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>15.14285714285714</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5041365718785235</v>
+        <v>0.5776373988131163</v>
       </c>
       <c r="C4" t="n">
-        <v>26.90125720962105</v>
+        <v>27.09754281694097</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3664926984062541</v>
+        <v>0.2776513104215002</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>22.21428571428572</v>
       </c>
       <c r="B5" t="n">
-        <v>1.328641186728753</v>
+        <v>0.9515961717983453</v>
       </c>
       <c r="C5" t="n">
-        <v>30.24759705029429</v>
+        <v>31.9340418626305</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2067885451419387</v>
+        <v>0.3451031389807854</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>29.28571428571428</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6454513462991218</v>
+        <v>0.5667283542625956</v>
       </c>
       <c r="C6" t="n">
-        <v>34.18638095833414</v>
+        <v>34.27216797703145</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2409130533608585</v>
+        <v>0.3060319934575012</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>36.35714285714285</v>
       </c>
       <c r="B7" t="n">
-        <v>1.491793368268686</v>
+        <v>1.0233898291715</v>
       </c>
       <c r="C7" t="n">
-        <v>35.96510457991699</v>
+        <v>35.88288419803694</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3506904926989397</v>
+        <v>0.3815265729283337</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>43.42857142857143</v>
       </c>
       <c r="B8" t="n">
-        <v>1.385540029389361</v>
+        <v>0.5664956364221713</v>
       </c>
       <c r="C8" t="n">
-        <v>37.17966034259898</v>
+        <v>37.67423634717077</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3331865934544794</v>
+        <v>0.3136919244632673</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>50.5</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7870526286447691</v>
+        <v>0.6696507705090119</v>
       </c>
       <c r="C9" t="n">
-        <v>38.58545943934809</v>
+        <v>39.91787762107</v>
       </c>
       <c r="D9" t="n">
-        <v>0.431395731436497</v>
+        <v>0.2729351586675712</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>57.57142857142857</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5527765173664136</v>
+        <v>1.012179580027115</v>
       </c>
       <c r="C10" t="n">
-        <v>40.56362142548588</v>
+        <v>40.52711806110187</v>
       </c>
       <c r="D10" t="n">
-        <v>0.173203859648685</v>
+        <v>0.3021575434948376</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>64.64285714285714</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7416119117076957</v>
+        <v>0.7797695654982522</v>
       </c>
       <c r="C11" t="n">
-        <v>40.78421765246344</v>
+        <v>41.29485023330993</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1647731340322251</v>
+        <v>0.3246126443346511</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>71.71428571428571</v>
       </c>
       <c r="B12" t="n">
-        <v>1.322454277866167</v>
+        <v>1.236230754996474</v>
       </c>
       <c r="C12" t="n">
-        <v>42.6587854433925</v>
+        <v>42.73459221652365</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4381703091585342</v>
+        <v>0.4149031650508609</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>78.78571428571428</v>
       </c>
       <c r="B13" t="n">
-        <v>1.496735467451164</v>
+        <v>1.480056768817018</v>
       </c>
       <c r="C13" t="n">
-        <v>44.0865253665383</v>
+        <v>43.70722963966295</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3056431326702908</v>
+        <v>0.3846606254552195</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>85.85714285714286</v>
       </c>
       <c r="B14" t="n">
-        <v>0.812811810263633</v>
+        <v>0.788196258265091</v>
       </c>
       <c r="C14" t="n">
-        <v>44.77867264043485</v>
+        <v>44.11024279536962</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3868574226624291</v>
+        <v>0.3288419637581137</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>92.92857142857143</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6095744579843702</v>
+        <v>1.026648414183211</v>
       </c>
       <c r="C15" t="n">
-        <v>46.26608291826932</v>
+        <v>44.25785919641407</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3738213521092641</v>
+        <v>0.4005520401168413</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>100</v>
       </c>
       <c r="B16" t="n">
-        <v>1.408547823279183</v>
+        <v>1.474637303310886</v>
       </c>
       <c r="C16" t="n">
-        <v>45.83856798193782</v>
+        <v>46.39839210305509</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1697716113757797</v>
+        <v>0.1728792338914879</v>
       </c>
     </row>
   </sheetData>
